--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/milady/PycharmProjects/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701A018-C77A-3448-A613-DF0F879723C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="17180" yWindow="8240" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>transaction_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>product_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="&quot;¥&quot;#,##0.00&quot; &quot;;&quot;(¥&quot;#,##0.00)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -48,26 +37,23 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,8 +72,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,6 +143,21 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -202,131 +209,89 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="ffff0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -336,10 +301,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -516,47 +481,49 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -573,8 +540,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -599,8 +565,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -625,8 +590,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,8 +615,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -677,8 +640,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,8 +665,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,8 +690,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,8 +715,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,8 +740,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -795,32 +753,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -838,8 +790,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,8 +815,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,8 +840,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,8 +865,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,8 +890,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,8 +915,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,8 +940,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,8 +965,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,8 +990,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,8 +1015,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,15 +1028,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1108,26 +1044,25 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1156,8 +1091,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1182,8 +1116,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,8 +1141,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1234,8 +1166,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1260,8 +1191,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,8 +1216,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1312,8 +1241,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,8 +1266,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1364,8 +1291,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,274 +1304,96 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="20" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="20.25" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A2" s="3">
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="4">
         <v>1001</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>5.95</v>
       </c>
-      <c r="D2" s="5">
-        <v>5.3550000000000004</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="D2" s="7">
+        <v>5.355</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1">
-      <c r="A3" s="6">
+    <row r="3" ht="20" customHeight="1">
+      <c r="A3" s="9">
         <v>1002</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>6.95</v>
       </c>
-      <c r="D3" s="8">
-        <v>6.2549999999999999</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="11">
+        <v>6.255</v>
+      </c>
+      <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1">
-      <c r="A4" s="6">
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="9">
         <v>1003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="13">
         <v>7.95</v>
       </c>
-      <c r="D4" s="8">
-        <v>7.1550000000000002</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="D4" s="11">
+        <v>7.155</v>
+      </c>
+      <c r="E4" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan" stopIfTrue="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>